--- a/Results/Multi_Year/Project_Information.xlsx
+++ b/Results/Multi_Year/Project_Information.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21629"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21929"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\loren\Desktop\MicroGridsPy-MYCE\Results\Multi_Year\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Giulia\Desktop\MicroGridsPy_MYCE_SalvageValue\Results\Multi_Year\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{31A974B0-DC25-40E7-9F67-59EA23B19C38}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C95C6D1-A7B1-491E-AAB7-FED8CF8D1996}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Project Info" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="28">
   <si>
     <t>NPC</t>
   </si>
@@ -37,12 +37,6 @@
     <t>Upgrade 1</t>
   </si>
   <si>
-    <t>Upgrade 2</t>
-  </si>
-  <si>
-    <t>Upgrade 3</t>
-  </si>
-  <si>
     <t>Battery Nominal Capacity [kWh]</t>
   </si>
   <si>
@@ -98,6 +92,12 @@
   </si>
   <si>
     <t>Year 3</t>
+  </si>
+  <si>
+    <t>Year 4</t>
+  </si>
+  <si>
+    <t>Year 5</t>
   </si>
   <si>
     <t>Renewable Real Penetration</t>
@@ -512,39 +512,39 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="27.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="28.85546875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B1" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>807333.98948372412</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+        <v>967115.19767848775</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>755763.6261878045</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+        <v>795172.94012812083</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.47398330466409472</v>
+        <v>0.3697407018354627</v>
       </c>
     </row>
   </sheetData>
@@ -554,151 +554,91 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:D10"/>
+  <dimension ref="A1:B10"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="32" bestFit="1" customWidth="1"/>
-    <col min="2" max="4" width="12" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="34" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C1" s="1" t="s">
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="B2">
+        <v>17.418989103017179</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A2" s="1" t="s">
+      <c r="B3">
+        <v>104.75270539837631</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B2">
-        <v>0</v>
-      </c>
-      <c r="C2">
-        <v>0</v>
-      </c>
-      <c r="D2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A3" s="1" t="s">
+      <c r="B4">
+        <v>92.815175083019867</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
         <v>7</v>
-      </c>
-      <c r="B3">
-        <v>114.0405301352051</v>
-      </c>
-      <c r="C3">
-        <v>122.7573513352051</v>
-      </c>
-      <c r="D3">
-        <v>131.4741725352051</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A4" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B4">
-        <v>0</v>
-      </c>
-      <c r="C4">
-        <v>0</v>
-      </c>
-      <c r="D4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A5" s="1" t="s">
-        <v>9</v>
       </c>
       <c r="B5">
         <v>0</v>
       </c>
-      <c r="C5">
-        <v>0</v>
-      </c>
-      <c r="D5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6">
+        <v>12890.05193623271</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B7">
+        <v>44006.611537857898</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B6">
-        <v>0</v>
-      </c>
-      <c r="C6">
-        <v>0</v>
-      </c>
-      <c r="D6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A7" s="1" t="s">
+      <c r="B8">
+        <v>342831.41220415052</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
         <v>11</v>
-      </c>
-      <c r="B7">
-        <v>47908.426709799664</v>
-      </c>
-      <c r="C7">
-        <v>3661.9365861200022</v>
-      </c>
-      <c r="D7">
-        <v>3661.9365861200022</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A8" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B8">
-        <v>0</v>
-      </c>
-      <c r="C8">
-        <v>0</v>
-      </c>
-      <c r="D8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A9" s="1" t="s">
-        <v>13</v>
       </c>
       <c r="B9">
         <v>0</v>
       </c>
-      <c r="C9">
-        <v>0</v>
-      </c>
-      <c r="D9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B10">
-        <v>47908.426709799664</v>
-      </c>
-      <c r="C10">
-        <v>3661.9365861200022</v>
-      </c>
-      <c r="D10">
-        <v>3661.9365861200022</v>
+        <v>399728.07567824109</v>
       </c>
     </row>
   </sheetData>
@@ -708,120 +648,172 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:H4"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="6.109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16.33203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="18.77734375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="19.5546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.44140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="6.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="20" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="20.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.140625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="12" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="20.77734375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="13.21875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="22.140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="G1" s="1" t="s">
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="H1" s="1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A2" s="1" t="s">
-        <v>22</v>
-      </c>
       <c r="B2">
-        <v>0</v>
+        <v>257.80103872465418</v>
       </c>
       <c r="C2">
-        <v>4790.8426709799669</v>
+        <v>4400.6611537857898</v>
       </c>
       <c r="D2">
-        <v>0</v>
+        <v>6856.6282440830109</v>
       </c>
       <c r="E2">
-        <v>4790.8426709799669</v>
+        <v>11515.090436593449</v>
       </c>
       <c r="F2">
-        <v>220530.57755536071</v>
+        <v>147515.0489019602</v>
       </c>
       <c r="G2">
-        <v>0</v>
+        <v>927.84386350062505</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B3">
-        <v>0</v>
+        <v>257.80103872465418</v>
       </c>
       <c r="C3">
-        <v>5157.0363295919669</v>
+        <v>4400.6611537857898</v>
       </c>
       <c r="D3">
-        <v>0</v>
+        <v>6856.6282440830109</v>
       </c>
       <c r="E3">
-        <v>5157.0363295919669</v>
+        <v>11515.090436593449</v>
       </c>
       <c r="F3">
-        <v>246612.91507201109</v>
+        <v>147520.60976081199</v>
       </c>
       <c r="G3">
-        <v>0</v>
+        <v>983.74473641765076</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B4">
+        <v>257.80103872465418</v>
+      </c>
+      <c r="C4">
+        <v>4400.6611537857898</v>
+      </c>
+      <c r="D4">
+        <v>6856.6282440830109</v>
+      </c>
+      <c r="E4">
+        <v>11515.090436593449</v>
+      </c>
+      <c r="F4">
+        <v>147520.60976081199</v>
+      </c>
+      <c r="G4">
+        <v>1019.887986226307</v>
+      </c>
+      <c r="H4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B5">
+        <v>257.80103872465418</v>
+      </c>
+      <c r="C5">
+        <v>4400.6611537857898</v>
+      </c>
+      <c r="D5">
+        <v>6856.6282440830109</v>
+      </c>
+      <c r="E5">
+        <v>11515.090436593449</v>
+      </c>
+      <c r="F5">
+        <v>147520.60976081199</v>
+      </c>
+      <c r="G5">
+        <v>1019.887986226307</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="B4">
-        <v>0</v>
-      </c>
-      <c r="C4">
-        <v>5523.229988203967</v>
-      </c>
-      <c r="D4">
-        <v>0</v>
-      </c>
-      <c r="E4">
-        <v>5523.229988203967</v>
-      </c>
-      <c r="F4">
-        <v>273149.02457167441</v>
-      </c>
-      <c r="G4">
-        <v>0</v>
-      </c>
-      <c r="H4">
+      <c r="B6">
+        <v>257.80103872465418</v>
+      </c>
+      <c r="C6">
+        <v>4400.6611537857898</v>
+      </c>
+      <c r="D6">
+        <v>6856.6282440830109</v>
+      </c>
+      <c r="E6">
+        <v>11515.090436593449</v>
+      </c>
+      <c r="F6">
+        <v>147520.60976081199</v>
+      </c>
+      <c r="G6">
+        <v>1019.887986226307</v>
+      </c>
+      <c r="H6">
         <v>0</v>
       </c>
     </row>
@@ -832,19 +824,19 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="6.109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="24.88671875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.77734375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="6.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="26.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B1" s="1" t="s">
         <v>25</v>
       </c>
@@ -855,46 +847,74 @@
         <v>27</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B2">
+        <v>0.39202733081849772</v>
+      </c>
+      <c r="C2">
+        <v>9.3455421309487086E-2</v>
+      </c>
+      <c r="D2">
+        <v>9.3257457744530675E-3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B3">
+        <v>0.39201834627547028</v>
+      </c>
+      <c r="C3">
+        <v>9.3397211730161397E-2</v>
+      </c>
+      <c r="D3">
+        <v>9.8735017702002159E-3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="B2">
-        <v>0</v>
-      </c>
-      <c r="C2">
-        <v>0</v>
-      </c>
-      <c r="D2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A3" s="1" t="s">
+      <c r="B4">
+        <v>0.39201834627547028</v>
+      </c>
+      <c r="C4">
+        <v>9.3361719977914689E-2</v>
+      </c>
+      <c r="D4">
+        <v>1.023625892432342E-2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="B3">
-        <v>0</v>
-      </c>
-      <c r="C3">
-        <v>0</v>
-      </c>
-      <c r="D3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A4" s="1" t="s">
+      <c r="B5">
+        <v>0.39201834627547028</v>
+      </c>
+      <c r="C5">
+        <v>9.3361719977914689E-2</v>
+      </c>
+      <c r="D5">
+        <v>1.023625892432342E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="B4">
-        <v>0</v>
-      </c>
-      <c r="C4">
-        <v>0</v>
-      </c>
-      <c r="D4">
-        <v>0</v>
+      <c r="B6">
+        <v>0.39201834627547028</v>
+      </c>
+      <c r="C6">
+        <v>9.3361719977914689E-2</v>
+      </c>
+      <c r="D6">
+        <v>1.023625892432342E-2</v>
       </c>
     </row>
   </sheetData>

--- a/Results/Multi_Year/Project_Information.xlsx
+++ b/Results/Multi_Year/Project_Information.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21629"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21425"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\loren\Desktop\MicroGridsPy-MYCE\Results\Multi_Year\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\loren\Desktop\MicroGridsPy_MultiYearCapacityExpansion-Multi_Year_Capacity_Expansion\MicroGridsPy_MultiYearCapacityExpansion-Multi_Year_Capacity_Expansion\Results\Multi_Year\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{31A974B0-DC25-40E7-9F67-59EA23B19C38}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0EF3917A-757F-4797-87FF-BECD3ADB2204}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5317" yWindow="3146" windowWidth="15951" windowHeight="8230" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Project Info" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="28">
   <si>
     <t>NPC</t>
   </si>
@@ -37,12 +37,6 @@
     <t>Upgrade 1</t>
   </si>
   <si>
-    <t>Upgrade 2</t>
-  </si>
-  <si>
-    <t>Upgrade 3</t>
-  </si>
-  <si>
     <t>Battery Nominal Capacity [kWh]</t>
   </si>
   <si>
@@ -98,6 +92,12 @@
   </si>
   <si>
     <t>Year 3</t>
+  </si>
+  <si>
+    <t>Year 4</t>
+  </si>
+  <si>
+    <t>Year 5</t>
   </si>
   <si>
     <t>Renewable Real Penetration</t>
@@ -172,7 +172,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normale" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -188,7 +188,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema di Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -514,8 +514,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="27.33203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="27.59765625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.8984375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
@@ -528,7 +528,7 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>807333.98948372412</v>
+        <v>1461480.5867019631</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
@@ -536,7 +536,7 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>755763.6261878045</v>
+        <v>1182705.79454426</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
@@ -544,7 +544,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.47398330466409472</v>
+        <v>0.4772966583158948</v>
       </c>
     </row>
   </sheetData>
@@ -554,151 +554,91 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:D10"/>
+  <dimension ref="A1:B10"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="32" bestFit="1" customWidth="1"/>
-    <col min="2" max="4" width="12" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="32.09765625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.8984375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C1" s="1" t="s">
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="B2">
+        <v>6.1750338886374809</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A2" s="1" t="s">
+      <c r="B3">
+        <v>144.21478917984061</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B2">
-        <v>0</v>
-      </c>
-      <c r="C2">
-        <v>0</v>
-      </c>
-      <c r="D2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A3" s="1" t="s">
+      <c r="B4">
+        <v>45.897096546460141</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5" s="1" t="s">
         <v>7</v>
-      </c>
-      <c r="B3">
-        <v>114.0405301352051</v>
-      </c>
-      <c r="C3">
-        <v>122.7573513352051</v>
-      </c>
-      <c r="D3">
-        <v>131.4741725352051</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A4" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B4">
-        <v>0</v>
-      </c>
-      <c r="C4">
-        <v>0</v>
-      </c>
-      <c r="D4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A5" s="1" t="s">
-        <v>9</v>
       </c>
       <c r="B5">
         <v>0</v>
       </c>
-      <c r="C5">
-        <v>0</v>
-      </c>
-      <c r="D5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6">
+        <v>2762.957163131955</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A7" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B7">
+        <v>60584.632934451052</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A8" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B6">
-        <v>0</v>
-      </c>
-      <c r="C6">
-        <v>0</v>
-      </c>
-      <c r="D6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A7" s="1" t="s">
+      <c r="B8">
+        <v>215427.20206011989</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A9" s="1" t="s">
         <v>11</v>
-      </c>
-      <c r="B7">
-        <v>47908.426709799664</v>
-      </c>
-      <c r="C7">
-        <v>3661.9365861200022</v>
-      </c>
-      <c r="D7">
-        <v>3661.9365861200022</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A8" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B8">
-        <v>0</v>
-      </c>
-      <c r="C8">
-        <v>0</v>
-      </c>
-      <c r="D8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A9" s="1" t="s">
-        <v>13</v>
       </c>
       <c r="B9">
         <v>0</v>
       </c>
-      <c r="C9">
-        <v>0</v>
-      </c>
-      <c r="D9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B10">
-        <v>47908.426709799664</v>
-      </c>
-      <c r="C10">
-        <v>3661.9365861200022</v>
-      </c>
-      <c r="D10">
-        <v>3661.9365861200022</v>
+        <v>278774.79215770302</v>
       </c>
     </row>
   </sheetData>
@@ -708,66 +648,66 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:H4"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="6.109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16.33203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="18.77734375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="19.5546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.44140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="20.77734375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="13.21875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="6.09765625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.296875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.8984375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="19.59765625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.8984375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="20.8984375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.09765625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>19</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B2">
-        <v>0</v>
+        <v>55.259143262639093</v>
       </c>
       <c r="C2">
-        <v>4790.8426709799669</v>
+        <v>6058.4632934451056</v>
       </c>
       <c r="D2">
-        <v>0</v>
+        <v>4308.5440412023991</v>
       </c>
       <c r="E2">
-        <v>4790.8426709799669</v>
+        <v>10422.26647791014</v>
       </c>
       <c r="F2">
-        <v>220530.57755536071</v>
+        <v>174013.2147760638</v>
       </c>
       <c r="G2">
-        <v>0</v>
+        <v>72.376755136928622</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -775,25 +715,25 @@
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B3">
-        <v>0</v>
+        <v>55.259143262639093</v>
       </c>
       <c r="C3">
-        <v>5157.0363295919669</v>
+        <v>6058.4632934451056</v>
       </c>
       <c r="D3">
-        <v>0</v>
+        <v>4308.5440412023991</v>
       </c>
       <c r="E3">
-        <v>5157.0363295919669</v>
+        <v>10422.26647791014</v>
       </c>
       <c r="F3">
-        <v>246612.91507201109</v>
+        <v>198224.2912546304</v>
       </c>
       <c r="G3">
-        <v>0</v>
+        <v>42.342319963365092</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -801,27 +741,79 @@
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B4">
+        <v>55.259143262639093</v>
+      </c>
+      <c r="C4">
+        <v>6058.4632934451056</v>
+      </c>
+      <c r="D4">
+        <v>4308.5440412023991</v>
+      </c>
+      <c r="E4">
+        <v>10422.26647791014</v>
+      </c>
+      <c r="F4">
+        <v>223257.02587713659</v>
+      </c>
+      <c r="G4">
+        <v>21.39342939190227</v>
+      </c>
+      <c r="H4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A5" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B5">
+        <v>55.259143262639093</v>
+      </c>
+      <c r="C5">
+        <v>6058.4632934451056</v>
+      </c>
+      <c r="D5">
+        <v>4308.5440412023991</v>
+      </c>
+      <c r="E5">
+        <v>10422.26647791014</v>
+      </c>
+      <c r="F5">
+        <v>252371.9633319019</v>
+      </c>
+      <c r="G5">
+        <v>2.3731693227008011</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A6" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="B4">
-        <v>0</v>
-      </c>
-      <c r="C4">
-        <v>5523.229988203967</v>
-      </c>
-      <c r="D4">
-        <v>0</v>
-      </c>
-      <c r="E4">
-        <v>5523.229988203967</v>
-      </c>
-      <c r="F4">
-        <v>273149.02457167441</v>
-      </c>
-      <c r="G4">
-        <v>0</v>
-      </c>
-      <c r="H4">
+      <c r="B6">
+        <v>55.259143262639093</v>
+      </c>
+      <c r="C6">
+        <v>6058.4632934451056</v>
+      </c>
+      <c r="D6">
+        <v>4308.5440412023991</v>
+      </c>
+      <c r="E6">
+        <v>10422.26647791014</v>
+      </c>
+      <c r="F6">
+        <v>282583.36114769487</v>
+      </c>
+      <c r="G6">
+        <v>6.1200935434860062</v>
+      </c>
+      <c r="H6">
         <v>0</v>
       </c>
     </row>
@@ -832,16 +824,16 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="6.109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="24.88671875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.77734375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="6.09765625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="25.09765625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
@@ -857,44 +849,72 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B2">
-        <v>0</v>
+        <v>0.21338634807427681</v>
       </c>
       <c r="C2">
-        <v>0</v>
+        <v>2.9659324378359291E-3</v>
       </c>
       <c r="D2">
-        <v>0</v>
+        <v>1.3201352094334971E-3</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B3">
-        <v>0</v>
+        <v>0.19702507381117679</v>
       </c>
       <c r="C3">
-        <v>0</v>
+        <v>9.3369280609981458E-4</v>
       </c>
       <c r="D3">
-        <v>0</v>
+        <v>7.1160003392778468E-4</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B4">
+        <v>0.18281428969469249</v>
+      </c>
+      <c r="C4">
+        <v>1.5904585932589559E-4</v>
+      </c>
+      <c r="D4">
+        <v>3.3333122898987429E-4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A5" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B5">
+        <v>0.17042783136176221</v>
+      </c>
+      <c r="C5">
+        <v>3.078223829393755E-7</v>
+      </c>
+      <c r="D5">
+        <v>3.4464480218878667E-5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="B4">
+      <c r="B6">
+        <v>0.15958705292452219</v>
+      </c>
+      <c r="C6">
         <v>0</v>
       </c>
-      <c r="C4">
-        <v>0</v>
-      </c>
-      <c r="D4">
-        <v>0</v>
+      <c r="D6">
+        <v>8.6741253239078702E-5</v>
       </c>
     </row>
   </sheetData>
